--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Col8a1-Itga2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Col8a1-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.31216364758403</v>
+        <v>3.822376999999999</v>
       </c>
       <c r="H2">
-        <v>2.31216364758403</v>
+        <v>11.467131</v>
       </c>
       <c r="I2">
-        <v>0.0248363647207858</v>
+        <v>0.0389094714863049</v>
       </c>
       <c r="J2">
-        <v>0.0248363647207858</v>
+        <v>0.03890947148630491</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6441970520611791</v>
+        <v>2.625574666666667</v>
       </c>
       <c r="N2">
-        <v>0.6441970520611791</v>
+        <v>7.876723999999999</v>
       </c>
       <c r="O2">
-        <v>0.2416273118978948</v>
+        <v>0.5472931490143097</v>
       </c>
       <c r="P2">
-        <v>0.2416273118978948</v>
+        <v>0.5472931490143097</v>
       </c>
       <c r="Q2">
-        <v>1.489489005656655</v>
+        <v>10.03593621764933</v>
       </c>
       <c r="R2">
-        <v>1.489489005656655</v>
+        <v>90.32342595884398</v>
       </c>
       <c r="S2">
-        <v>0.006001144044799182</v>
+        <v>0.0212948871762223</v>
       </c>
       <c r="T2">
-        <v>0.006001144044799182</v>
+        <v>0.02129488717622231</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.31216364758403</v>
+        <v>3.822376999999999</v>
       </c>
       <c r="H3">
-        <v>2.31216364758403</v>
+        <v>11.467131</v>
       </c>
       <c r="I3">
-        <v>0.0248363647207858</v>
+        <v>0.0389094714863049</v>
       </c>
       <c r="J3">
-        <v>0.0248363647207858</v>
+        <v>0.03890947148630491</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.32323296953614</v>
+        <v>1.401354</v>
       </c>
       <c r="N3">
-        <v>1.32323296953614</v>
+        <v>4.204062</v>
       </c>
       <c r="O3">
-        <v>0.4963220871947144</v>
+        <v>0.292108030017479</v>
       </c>
       <c r="P3">
-        <v>0.4963220871947144</v>
+        <v>0.292108030017479</v>
       </c>
       <c r="Q3">
-        <v>3.059531169446129</v>
+        <v>5.356503298458</v>
       </c>
       <c r="R3">
-        <v>3.059531169446129</v>
+        <v>48.208529686122</v>
       </c>
       <c r="S3">
-        <v>0.01232683637654958</v>
+        <v>0.0113657690648858</v>
       </c>
       <c r="T3">
-        <v>0.01232683637654958</v>
+        <v>0.0113657690648858</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.31216364758403</v>
+        <v>3.822376999999999</v>
       </c>
       <c r="H4">
-        <v>2.31216364758403</v>
+        <v>11.467131</v>
       </c>
       <c r="I4">
-        <v>0.0248363647207858</v>
+        <v>0.0389094714863049</v>
       </c>
       <c r="J4">
-        <v>0.0248363647207858</v>
+        <v>0.03890947148630491</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.698647115963187</v>
+        <v>0.066056</v>
       </c>
       <c r="N4">
-        <v>0.698647115963187</v>
+        <v>0.198168</v>
       </c>
       <c r="O4">
-        <v>0.2620506009073908</v>
+        <v>0.01376917469164436</v>
       </c>
       <c r="P4">
-        <v>0.2620506009073908</v>
+        <v>0.01376917469164436</v>
       </c>
       <c r="Q4">
-        <v>1.615386464019505</v>
+        <v>0.252490935112</v>
       </c>
       <c r="R4">
-        <v>1.615386464019505</v>
+        <v>2.272418416008</v>
       </c>
       <c r="S4">
-        <v>0.00650838429943704</v>
+        <v>0.0005357513100544874</v>
       </c>
       <c r="T4">
-        <v>0.00650838429943704</v>
+        <v>0.0005357513100544874</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>76.6783723994731</v>
+        <v>3.822376999999999</v>
       </c>
       <c r="H5">
-        <v>76.6783723994731</v>
+        <v>11.467131</v>
       </c>
       <c r="I5">
-        <v>0.8236493230483325</v>
+        <v>0.0389094714863049</v>
       </c>
       <c r="J5">
-        <v>0.8236493230483325</v>
+        <v>0.03890947148630491</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6441970520611791</v>
+        <v>0.704398</v>
       </c>
       <c r="N5">
-        <v>0.6441970520611791</v>
+        <v>2.113194</v>
       </c>
       <c r="O5">
-        <v>0.2416273118978948</v>
+        <v>0.1468296462765669</v>
       </c>
       <c r="P5">
-        <v>0.2416273118978948</v>
+        <v>0.1468296462765669</v>
       </c>
       <c r="Q5">
-        <v>49.39598145658985</v>
+        <v>2.692474714045999</v>
       </c>
       <c r="R5">
-        <v>49.39598145658985</v>
+        <v>24.232272426414</v>
       </c>
       <c r="S5">
-        <v>0.1990161718746894</v>
+        <v>0.005713063935142315</v>
       </c>
       <c r="T5">
-        <v>0.1990161718746894</v>
+        <v>0.005713063935142316</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>76.6783723994731</v>
+        <v>76.691513</v>
       </c>
       <c r="H6">
-        <v>76.6783723994731</v>
+        <v>230.074539</v>
       </c>
       <c r="I6">
-        <v>0.8236493230483325</v>
+        <v>0.7806729263793399</v>
       </c>
       <c r="J6">
-        <v>0.8236493230483325</v>
+        <v>0.7806729263793399</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.32323296953614</v>
+        <v>2.625574666666667</v>
       </c>
       <c r="N6">
-        <v>1.32323296953614</v>
+        <v>7.876723999999999</v>
       </c>
       <c r="O6">
-        <v>0.4963220871947144</v>
+        <v>0.5472931490143097</v>
       </c>
       <c r="P6">
-        <v>0.4963220871947144</v>
+        <v>0.5472931490143097</v>
       </c>
       <c r="Q6">
-        <v>101.4633504093528</v>
+        <v>201.3592936811373</v>
       </c>
       <c r="R6">
-        <v>101.4633504093528</v>
+        <v>1812.233643130236</v>
       </c>
       <c r="S6">
-        <v>0.4087953511318619</v>
+        <v>0.4272569442283653</v>
       </c>
       <c r="T6">
-        <v>0.4087953511318619</v>
+        <v>0.4272569442283653</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,185 +832,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>76.6783723994731</v>
+        <v>76.691513</v>
       </c>
       <c r="H7">
-        <v>76.6783723994731</v>
+        <v>230.074539</v>
       </c>
       <c r="I7">
-        <v>0.8236493230483325</v>
+        <v>0.7806729263793399</v>
       </c>
       <c r="J7">
-        <v>0.8236493230483325</v>
+        <v>0.7806729263793399</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.698647115963187</v>
+        <v>1.401354</v>
       </c>
       <c r="N7">
-        <v>0.698647115963187</v>
+        <v>4.204062</v>
       </c>
       <c r="O7">
-        <v>0.2620506009073908</v>
+        <v>0.292108030017479</v>
       </c>
       <c r="P7">
-        <v>0.2620506009073908</v>
+        <v>0.292108030017479</v>
       </c>
       <c r="Q7">
-        <v>53.57112373364312</v>
+        <v>107.471958508602</v>
       </c>
       <c r="R7">
-        <v>53.57112373364312</v>
+        <v>967.247626577418</v>
       </c>
       <c r="S7">
-        <v>0.2158378000417812</v>
+        <v>0.2280408306126494</v>
       </c>
       <c r="T7">
-        <v>0.2158378000417812</v>
+        <v>0.2280408306126494</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.1053607791381</v>
+        <v>76.691513</v>
       </c>
       <c r="H8">
-        <v>14.1053607791381</v>
+        <v>230.074539</v>
       </c>
       <c r="I8">
-        <v>0.1515143122308818</v>
+        <v>0.7806729263793399</v>
       </c>
       <c r="J8">
-        <v>0.1515143122308818</v>
+        <v>0.7806729263793399</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.6441970520611791</v>
+        <v>0.066056</v>
       </c>
       <c r="N8">
-        <v>0.6441970520611791</v>
+        <v>0.198168</v>
       </c>
       <c r="O8">
-        <v>0.2416273118978948</v>
+        <v>0.01376917469164436</v>
       </c>
       <c r="P8">
-        <v>0.2416273118978948</v>
+        <v>0.01376917469164436</v>
       </c>
       <c r="Q8">
-        <v>9.08663183218014</v>
+        <v>5.065934582728</v>
       </c>
       <c r="R8">
-        <v>9.08663183218014</v>
+        <v>45.593411244552</v>
       </c>
       <c r="S8">
-        <v>0.0366099959784063</v>
+        <v>0.01074922190035435</v>
       </c>
       <c r="T8">
-        <v>0.0366099959784063</v>
+        <v>0.01074922190035435</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.1053607791381</v>
+        <v>76.691513</v>
       </c>
       <c r="H9">
-        <v>14.1053607791381</v>
+        <v>230.074539</v>
       </c>
       <c r="I9">
-        <v>0.1515143122308818</v>
+        <v>0.7806729263793399</v>
       </c>
       <c r="J9">
-        <v>0.1515143122308818</v>
+        <v>0.7806729263793399</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.32323296953614</v>
+        <v>0.704398</v>
       </c>
       <c r="N9">
-        <v>1.32323296953614</v>
+        <v>2.113194</v>
       </c>
       <c r="O9">
-        <v>0.4963220871947144</v>
+        <v>0.1468296462765669</v>
       </c>
       <c r="P9">
-        <v>0.4963220871947144</v>
+        <v>0.1468296462765669</v>
       </c>
       <c r="Q9">
-        <v>18.66467843015751</v>
+        <v>54.021348374174</v>
       </c>
       <c r="R9">
-        <v>18.66467843015751</v>
+        <v>486.192135367566</v>
       </c>
       <c r="S9">
-        <v>0.07519989968630289</v>
+        <v>0.1146259296379708</v>
       </c>
       <c r="T9">
-        <v>0.07519989968630289</v>
+        <v>0.1146259296379708</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.097817</v>
+      </c>
+      <c r="H10">
+        <v>0.293451</v>
+      </c>
+      <c r="I10">
+        <v>0.0009957175266531498</v>
+      </c>
+      <c r="J10">
+        <v>0.00099571752665315</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.625574666666667</v>
+      </c>
+      <c r="N10">
+        <v>7.876723999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.5472931490143097</v>
+      </c>
+      <c r="P10">
+        <v>0.5472931490143097</v>
+      </c>
+      <c r="Q10">
+        <v>0.2568258371693333</v>
+      </c>
+      <c r="R10">
+        <v>2.311432534524</v>
+      </c>
+      <c r="S10">
+        <v>0.0005449493806907423</v>
+      </c>
+      <c r="T10">
+        <v>0.0005449493806907424</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.097817</v>
+      </c>
+      <c r="H11">
+        <v>0.293451</v>
+      </c>
+      <c r="I11">
+        <v>0.0009957175266531498</v>
+      </c>
+      <c r="J11">
+        <v>0.00099571752665315</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.401354</v>
+      </c>
+      <c r="N11">
+        <v>4.204062</v>
+      </c>
+      <c r="O11">
+        <v>0.292108030017479</v>
+      </c>
+      <c r="P11">
+        <v>0.292108030017479</v>
+      </c>
+      <c r="Q11">
+        <v>0.137076244218</v>
+      </c>
+      <c r="R11">
+        <v>1.233686197962</v>
+      </c>
+      <c r="S11">
+        <v>0.0002908570851645283</v>
+      </c>
+      <c r="T11">
+        <v>0.0002908570851645283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.097817</v>
+      </c>
+      <c r="H12">
+        <v>0.293451</v>
+      </c>
+      <c r="I12">
+        <v>0.0009957175266531498</v>
+      </c>
+      <c r="J12">
+        <v>0.00099571752665315</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.066056</v>
+      </c>
+      <c r="N12">
+        <v>0.198168</v>
+      </c>
+      <c r="O12">
+        <v>0.01376917469164436</v>
+      </c>
+      <c r="P12">
+        <v>0.01376917469164436</v>
+      </c>
+      <c r="Q12">
+        <v>0.006461399752</v>
+      </c>
+      <c r="R12">
+        <v>0.058152597768</v>
+      </c>
+      <c r="S12">
+        <v>1.371020856801927E-05</v>
+      </c>
+      <c r="T12">
+        <v>1.371020856801927E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.097817</v>
+      </c>
+      <c r="H13">
+        <v>0.293451</v>
+      </c>
+      <c r="I13">
+        <v>0.0009957175266531498</v>
+      </c>
+      <c r="J13">
+        <v>0.00099571752665315</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.704398</v>
+      </c>
+      <c r="N13">
+        <v>2.113194</v>
+      </c>
+      <c r="O13">
+        <v>0.1468296462765669</v>
+      </c>
+      <c r="P13">
+        <v>0.1468296462765669</v>
+      </c>
+      <c r="Q13">
+        <v>0.068902099166</v>
+      </c>
+      <c r="R13">
+        <v>0.6201188924940001</v>
+      </c>
+      <c r="S13">
+        <v>0.0001462008522298601</v>
+      </c>
+      <c r="T13">
+        <v>0.0001462008522298601</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>17.62599333333333</v>
+      </c>
+      <c r="H14">
+        <v>52.87798</v>
+      </c>
+      <c r="I14">
+        <v>0.1794218846077019</v>
+      </c>
+      <c r="J14">
+        <v>0.1794218846077019</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.625574666666667</v>
+      </c>
+      <c r="N14">
+        <v>7.876723999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.5472931490143097</v>
+      </c>
+      <c r="P14">
+        <v>0.5472931490143097</v>
+      </c>
+      <c r="Q14">
+        <v>46.27836157083556</v>
+      </c>
+      <c r="R14">
+        <v>416.50525413752</v>
+      </c>
+      <c r="S14">
+        <v>0.09819636822903127</v>
+      </c>
+      <c r="T14">
+        <v>0.09819636822903129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>17.62599333333333</v>
+      </c>
+      <c r="H15">
+        <v>52.87798</v>
+      </c>
+      <c r="I15">
+        <v>0.1794218846077019</v>
+      </c>
+      <c r="J15">
+        <v>0.1794218846077019</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.401354</v>
+      </c>
+      <c r="N15">
+        <v>4.204062</v>
+      </c>
+      <c r="O15">
+        <v>0.292108030017479</v>
+      </c>
+      <c r="P15">
+        <v>0.292108030017479</v>
+      </c>
+      <c r="Q15">
+        <v>24.70025626164</v>
+      </c>
+      <c r="R15">
+        <v>222.30230635476</v>
+      </c>
+      <c r="S15">
+        <v>0.05241057325477924</v>
+      </c>
+      <c r="T15">
+        <v>0.05241057325477924</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>14.1053607791381</v>
-      </c>
-      <c r="H10">
-        <v>14.1053607791381</v>
-      </c>
-      <c r="I10">
-        <v>0.1515143122308818</v>
-      </c>
-      <c r="J10">
-        <v>0.1515143122308818</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.698647115963187</v>
-      </c>
-      <c r="N10">
-        <v>0.698647115963187</v>
-      </c>
-      <c r="O10">
-        <v>0.2620506009073908</v>
-      </c>
-      <c r="P10">
-        <v>0.2620506009073908</v>
-      </c>
-      <c r="Q10">
-        <v>9.854669627965086</v>
-      </c>
-      <c r="R10">
-        <v>9.854669627965086</v>
-      </c>
-      <c r="S10">
-        <v>0.03970441656617261</v>
-      </c>
-      <c r="T10">
-        <v>0.03970441656617261</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>17.62599333333333</v>
+      </c>
+      <c r="H16">
+        <v>52.87798</v>
+      </c>
+      <c r="I16">
+        <v>0.1794218846077019</v>
+      </c>
+      <c r="J16">
+        <v>0.1794218846077019</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.066056</v>
+      </c>
+      <c r="N16">
+        <v>0.198168</v>
+      </c>
+      <c r="O16">
+        <v>0.01376917469164436</v>
+      </c>
+      <c r="P16">
+        <v>0.01376917469164436</v>
+      </c>
+      <c r="Q16">
+        <v>1.164302615626667</v>
+      </c>
+      <c r="R16">
+        <v>10.47872354064</v>
+      </c>
+      <c r="S16">
+        <v>0.002470491272667504</v>
+      </c>
+      <c r="T16">
+        <v>0.002470491272667504</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>17.62599333333333</v>
+      </c>
+      <c r="H17">
+        <v>52.87798</v>
+      </c>
+      <c r="I17">
+        <v>0.1794218846077019</v>
+      </c>
+      <c r="J17">
+        <v>0.1794218846077019</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.704398</v>
+      </c>
+      <c r="N17">
+        <v>2.113194</v>
+      </c>
+      <c r="O17">
+        <v>0.1468296462765669</v>
+      </c>
+      <c r="P17">
+        <v>0.1468296462765669</v>
+      </c>
+      <c r="Q17">
+        <v>12.41571445201333</v>
+      </c>
+      <c r="R17">
+        <v>111.74143006812</v>
+      </c>
+      <c r="S17">
+        <v>0.02634445185122387</v>
+      </c>
+      <c r="T17">
+        <v>0.02634445185122388</v>
       </c>
     </row>
   </sheetData>
